--- a/data/pca/factorExposure/factorExposure_2013-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001787929347101631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001841293730112383</v>
+      </c>
+      <c r="C2">
+        <v>0.03279582119977731</v>
+      </c>
+      <c r="D2">
+        <v>0.006347516591662235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002016867412739019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005999003036305044</v>
+      </c>
+      <c r="C4">
+        <v>0.08517828827022986</v>
+      </c>
+      <c r="D4">
+        <v>0.07848341964896285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001136128669697294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01325417971696263</v>
+      </c>
+      <c r="C6">
+        <v>0.10872701711957</v>
+      </c>
+      <c r="D6">
+        <v>0.03380434792543695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002223760789864001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004659438533021453</v>
+      </c>
+      <c r="C7">
+        <v>0.05360620414076548</v>
+      </c>
+      <c r="D7">
+        <v>0.03594082107036192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006856811175529391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005588761651629232</v>
+      </c>
+      <c r="C8">
+        <v>0.03711618610033308</v>
+      </c>
+      <c r="D8">
+        <v>0.03828811443242726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003995698857912464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003978121137249683</v>
+      </c>
+      <c r="C9">
+        <v>0.06977339843227555</v>
+      </c>
+      <c r="D9">
+        <v>0.07177509083148019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004456767852856797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005684695303263282</v>
+      </c>
+      <c r="C10">
+        <v>0.07315032562626229</v>
+      </c>
+      <c r="D10">
+        <v>-0.2135502610250368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003373473128161503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005212911167875463</v>
+      </c>
+      <c r="C11">
+        <v>0.07817439881853948</v>
+      </c>
+      <c r="D11">
+        <v>0.06508129826976795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>7.007339387037145e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003960849533464157</v>
+      </c>
+      <c r="C12">
+        <v>0.06364324789629573</v>
+      </c>
+      <c r="D12">
+        <v>0.04771649730913968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002990322910189938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008356238846035393</v>
+      </c>
+      <c r="C13">
+        <v>0.06498530726525535</v>
+      </c>
+      <c r="D13">
+        <v>0.06691707989090398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.00150424439819017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001541536271034025</v>
+      </c>
+      <c r="C14">
+        <v>0.04565924503856965</v>
+      </c>
+      <c r="D14">
+        <v>0.01397266652862413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009448017183455136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005862200323394798</v>
+      </c>
+      <c r="C15">
+        <v>0.04070329243336809</v>
+      </c>
+      <c r="D15">
+        <v>0.0324600997110319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001721964395405153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00485542537059854</v>
+      </c>
+      <c r="C16">
+        <v>0.06462128719259613</v>
+      </c>
+      <c r="D16">
+        <v>0.05045051109444044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001765659276203737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008887250589338341</v>
+      </c>
+      <c r="C20">
+        <v>0.06505240415834793</v>
+      </c>
+      <c r="D20">
+        <v>0.05559012980841785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005416631590530289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009784038551830234</v>
+      </c>
+      <c r="C21">
+        <v>0.02182411375479234</v>
+      </c>
+      <c r="D21">
+        <v>0.03585230816576462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01713755459443031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006940072923529022</v>
+      </c>
+      <c r="C22">
+        <v>0.09374949920777374</v>
+      </c>
+      <c r="D22">
+        <v>0.1020901463451914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01746332466087331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00675359304248046</v>
+      </c>
+      <c r="C23">
+        <v>0.09460575507447991</v>
+      </c>
+      <c r="D23">
+        <v>0.1024184214406244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002109291500902177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004853440590954149</v>
+      </c>
+      <c r="C24">
+        <v>0.07297587455934844</v>
+      </c>
+      <c r="D24">
+        <v>0.06180114273484071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004069684797381969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002689834218075553</v>
+      </c>
+      <c r="C25">
+        <v>0.07698061392585426</v>
+      </c>
+      <c r="D25">
+        <v>0.06683853915214973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006215996121178994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003592151020035319</v>
+      </c>
+      <c r="C26">
+        <v>0.04121458734587866</v>
+      </c>
+      <c r="D26">
+        <v>0.02878233691926097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004093350122604008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004510354352062705</v>
+      </c>
+      <c r="C28">
+        <v>0.1212903843424745</v>
+      </c>
+      <c r="D28">
+        <v>-0.3096786750894719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001437410563594989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003229886333275683</v>
+      </c>
+      <c r="C29">
+        <v>0.04880692184656183</v>
+      </c>
+      <c r="D29">
+        <v>0.01350891768152595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004470108040499062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008596775063511359</v>
+      </c>
+      <c r="C30">
+        <v>0.1379533026086322</v>
+      </c>
+      <c r="D30">
+        <v>0.1076278069220522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001254424147528402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006074601091479404</v>
+      </c>
+      <c r="C31">
+        <v>0.04546599734093154</v>
+      </c>
+      <c r="D31">
+        <v>0.03127422423102422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001221654331534058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003968645249806394</v>
+      </c>
+      <c r="C32">
+        <v>0.03944055281354698</v>
+      </c>
+      <c r="D32">
+        <v>0.01880529849959649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003513569478744489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007756396348084565</v>
+      </c>
+      <c r="C33">
+        <v>0.08384532753326551</v>
+      </c>
+      <c r="D33">
+        <v>0.07530192518582943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004802928770265888</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003776521151806422</v>
+      </c>
+      <c r="C34">
+        <v>0.05786490521636711</v>
+      </c>
+      <c r="D34">
+        <v>0.04763249245006378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002736455262168009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004682990626631291</v>
+      </c>
+      <c r="C35">
+        <v>0.03849088550270342</v>
+      </c>
+      <c r="D35">
+        <v>0.01435045933720922</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004021930901668139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001419113539525638</v>
+      </c>
+      <c r="C36">
+        <v>0.02342352877331242</v>
+      </c>
+      <c r="D36">
+        <v>0.02335113590421388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002044578414270726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009207660041328251</v>
+      </c>
+      <c r="C38">
+        <v>0.03301328693966809</v>
+      </c>
+      <c r="D38">
+        <v>0.01979511803554293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01332505290120885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001046623004058934</v>
+      </c>
+      <c r="C39">
+        <v>0.1149013072590619</v>
+      </c>
+      <c r="D39">
+        <v>0.08533060436869368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009446185946620602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002031692472286334</v>
+      </c>
+      <c r="C40">
+        <v>0.08710116077166444</v>
+      </c>
+      <c r="D40">
+        <v>0.02135652567835515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0003957687618885371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007354764502680343</v>
+      </c>
+      <c r="C41">
+        <v>0.03909263848060426</v>
+      </c>
+      <c r="D41">
+        <v>0.03482676586908836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003144140394433882</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003499523152510836</v>
+      </c>
+      <c r="C43">
+        <v>0.05045009460859529</v>
+      </c>
+      <c r="D43">
+        <v>0.02585431733309792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002370867114681044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003383479894346656</v>
+      </c>
+      <c r="C44">
+        <v>0.1098313400044022</v>
+      </c>
+      <c r="D44">
+        <v>0.08477441362171263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001785993310784503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002254631523296358</v>
+      </c>
+      <c r="C46">
+        <v>0.03394571155236889</v>
+      </c>
+      <c r="D46">
+        <v>0.03113461735417207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001081423434616983</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002563250865862976</v>
+      </c>
+      <c r="C47">
+        <v>0.03797475957629659</v>
+      </c>
+      <c r="D47">
+        <v>0.02377420468540814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003373445313596731</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006306800150907022</v>
+      </c>
+      <c r="C48">
+        <v>0.02838798818432745</v>
+      </c>
+      <c r="D48">
+        <v>0.0333861504645404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01439613195983907</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01430038513121116</v>
+      </c>
+      <c r="C49">
+        <v>0.1736918493782609</v>
+      </c>
+      <c r="D49">
+        <v>0.0270467043131829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001350335390120771</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003539286554202119</v>
+      </c>
+      <c r="C50">
+        <v>0.04280546601420114</v>
+      </c>
+      <c r="D50">
+        <v>0.03591136975197562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001294260194190642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004242724356093145</v>
+      </c>
+      <c r="C51">
+        <v>0.02061716679295964</v>
+      </c>
+      <c r="D51">
+        <v>0.03285412661581826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-4.689324660434477e-06</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01998692431658994</v>
+      </c>
+      <c r="C53">
+        <v>0.1648788720145429</v>
+      </c>
+      <c r="D53">
+        <v>0.04802246720498093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001009003607212025</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008564479393809374</v>
+      </c>
+      <c r="C54">
+        <v>0.05465220959967272</v>
+      </c>
+      <c r="D54">
+        <v>0.04276340816374898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004089642325384452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009140067324478281</v>
+      </c>
+      <c r="C55">
+        <v>0.1067761732266369</v>
+      </c>
+      <c r="D55">
+        <v>0.05216699705105018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002673717178527607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01944231137945083</v>
+      </c>
+      <c r="C56">
+        <v>0.1733433710895498</v>
+      </c>
+      <c r="D56">
+        <v>0.04447597548533577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008056561018916998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01915336871703466</v>
+      </c>
+      <c r="C58">
+        <v>0.1033985628005461</v>
+      </c>
+      <c r="D58">
+        <v>0.0698258547282631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006826828497785771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009558590067438998</v>
+      </c>
+      <c r="C59">
+        <v>0.1689070474485906</v>
+      </c>
+      <c r="D59">
+        <v>-0.2863048845603646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004825570115120247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02328766086987683</v>
+      </c>
+      <c r="C60">
+        <v>0.2228515313615559</v>
+      </c>
+      <c r="D60">
+        <v>0.02810765300644353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01504069484187362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002152983646553331</v>
+      </c>
+      <c r="C61">
+        <v>0.09390186242218963</v>
+      </c>
+      <c r="D61">
+        <v>0.06298414892607516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1714469233609488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436177914568555</v>
+      </c>
+      <c r="C62">
+        <v>0.08091199700245419</v>
+      </c>
+      <c r="D62">
+        <v>0.05544303410542851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001500075324154144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006338075186467135</v>
+      </c>
+      <c r="C63">
+        <v>0.05959565669739315</v>
+      </c>
+      <c r="D63">
+        <v>0.02495024004765156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006712555541193041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01476857139814</v>
+      </c>
+      <c r="C64">
+        <v>0.1030664460343023</v>
+      </c>
+      <c r="D64">
+        <v>0.06420404421385766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0006970866846792602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01704546204597428</v>
+      </c>
+      <c r="C65">
+        <v>0.1159186884218796</v>
+      </c>
+      <c r="D65">
+        <v>0.02351071001634704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008304233752585001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01212043076733125</v>
+      </c>
+      <c r="C66">
+        <v>0.1543850015185134</v>
+      </c>
+      <c r="D66">
+        <v>0.1224410197302781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003423090460784857</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01527696033216662</v>
+      </c>
+      <c r="C67">
+        <v>0.06304013272478161</v>
+      </c>
+      <c r="D67">
+        <v>0.03076937851770039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006613783736118341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001100705868692404</v>
+      </c>
+      <c r="C68">
+        <v>0.1031278546867136</v>
+      </c>
+      <c r="D68">
+        <v>-0.2595391687087693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002678632128390121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005810423843972489</v>
+      </c>
+      <c r="C69">
+        <v>0.04809860193171478</v>
+      </c>
+      <c r="D69">
+        <v>0.04320407045337207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001723997573234682</v>
+      </c>
+      <c r="C70">
+        <v>0.001865053893605717</v>
+      </c>
+      <c r="D70">
+        <v>0.002449890511106616</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001649743186516472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006181586337264031</v>
+      </c>
+      <c r="C71">
+        <v>0.1075511337998694</v>
+      </c>
+      <c r="D71">
+        <v>-0.2854504484874767</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.006296381197519247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01542927965375287</v>
+      </c>
+      <c r="C72">
+        <v>0.1499815486109084</v>
+      </c>
+      <c r="D72">
+        <v>0.01976838814854539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0119955124112405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02925009579546631</v>
+      </c>
+      <c r="C73">
+        <v>0.2815004162023773</v>
+      </c>
+      <c r="D73">
+        <v>0.04539615953062905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004789974516476018</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001254816770488173</v>
+      </c>
+      <c r="C74">
+        <v>0.1038794101472063</v>
+      </c>
+      <c r="D74">
+        <v>0.04449799802965755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004917382111159697</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01057095904205243</v>
+      </c>
+      <c r="C75">
+        <v>0.1318739640217024</v>
+      </c>
+      <c r="D75">
+        <v>0.02639444404653308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009258009809679869</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02098693604389376</v>
+      </c>
+      <c r="C76">
+        <v>0.1479043769315606</v>
+      </c>
+      <c r="D76">
+        <v>0.07066482759196993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001082842526681923</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02400627161383413</v>
+      </c>
+      <c r="C77">
+        <v>0.1332603441522819</v>
+      </c>
+      <c r="D77">
+        <v>0.06617564957981344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.00165772894218656</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01399247818580351</v>
+      </c>
+      <c r="C78">
+        <v>0.09166253416761085</v>
+      </c>
+      <c r="D78">
+        <v>0.06837287198917712</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.0247872757874804</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03668161823968126</v>
+      </c>
+      <c r="C79">
+        <v>0.1568031746161259</v>
+      </c>
+      <c r="D79">
+        <v>0.03219360436179473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004898610313872484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01034094247564914</v>
+      </c>
+      <c r="C80">
+        <v>0.04125776077470564</v>
+      </c>
+      <c r="D80">
+        <v>0.03252554108567123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001296856782197217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01437122342397615</v>
+      </c>
+      <c r="C81">
+        <v>0.1232174191122989</v>
+      </c>
+      <c r="D81">
+        <v>0.05661518333197485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.004394835788519035</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01925584706708267</v>
+      </c>
+      <c r="C82">
+        <v>0.14170186438012</v>
+      </c>
+      <c r="D82">
+        <v>0.04632990461979272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008452785934387535</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00980827095883733</v>
+      </c>
+      <c r="C83">
+        <v>0.05518503411598016</v>
+      </c>
+      <c r="D83">
+        <v>0.04866252874715064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01256156842556154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01159430148326403</v>
+      </c>
+      <c r="C84">
+        <v>0.0333636762337385</v>
+      </c>
+      <c r="D84">
+        <v>-0.004187310838086731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01494306901744784</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02773932077054633</v>
+      </c>
+      <c r="C85">
+        <v>0.1285267195562282</v>
+      </c>
+      <c r="D85">
+        <v>0.04940903805939868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001448233658473875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005348093300255418</v>
+      </c>
+      <c r="C86">
+        <v>0.04837247568843935</v>
+      </c>
+      <c r="D86">
+        <v>0.02286776888908221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005568529928875774</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01002841014862065</v>
+      </c>
+      <c r="C87">
+        <v>0.1291896165252335</v>
+      </c>
+      <c r="D87">
+        <v>0.07771368963695628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01340476483913135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002926870876188165</v>
+      </c>
+      <c r="C88">
+        <v>0.06726171813789179</v>
+      </c>
+      <c r="D88">
+        <v>0.01543227975246198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0157433421155191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008880358349358544</v>
+      </c>
+      <c r="C89">
+        <v>0.1588568138157278</v>
+      </c>
+      <c r="D89">
+        <v>-0.3389862498509717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002995149984884785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007471283134068591</v>
+      </c>
+      <c r="C90">
+        <v>0.1390163000416029</v>
+      </c>
+      <c r="D90">
+        <v>-0.3221446228194587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0005138566381375853</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01007140932492667</v>
+      </c>
+      <c r="C91">
+        <v>0.1051061212797617</v>
+      </c>
+      <c r="D91">
+        <v>0.02001709028530156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008573242690798909</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007721889271042805</v>
+      </c>
+      <c r="C92">
+        <v>0.1453231933463082</v>
+      </c>
+      <c r="D92">
+        <v>-0.3293295072764147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0009888817518692919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005316255669737193</v>
+      </c>
+      <c r="C93">
+        <v>0.1194636726673875</v>
+      </c>
+      <c r="D93">
+        <v>-0.312908332879379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00283219751791124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02198325311100791</v>
+      </c>
+      <c r="C94">
+        <v>0.1558394392098804</v>
+      </c>
+      <c r="D94">
+        <v>0.03329007394878546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005293822026473987</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01596265780888647</v>
+      </c>
+      <c r="C95">
+        <v>0.1244749326926236</v>
+      </c>
+      <c r="D95">
+        <v>0.06527242515299829</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002184759429111647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03453683223399344</v>
+      </c>
+      <c r="C97">
+        <v>0.181337362928303</v>
+      </c>
+      <c r="D97">
+        <v>0.03757151006599093</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.005191212476395986</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0362481056799108</v>
+      </c>
+      <c r="C98">
+        <v>0.2529731345391828</v>
+      </c>
+      <c r="D98">
+        <v>0.04725965080826669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.983168261475092</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828064151820672</v>
+      </c>
+      <c r="C99">
+        <v>-0.1099582422677974</v>
+      </c>
+      <c r="D99">
+        <v>-0.03069483733980777</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001393109976407952</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003273446633728024</v>
+      </c>
+      <c r="C101">
+        <v>0.04883812500823178</v>
+      </c>
+      <c r="D101">
+        <v>0.01391512114051803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
